--- a/Invoice.xlsx
+++ b/Invoice.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amulligan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amulligan\Desktop\CCS_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,13 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
-  <si>
-    <t>INVOICE</t>
-  </si>
-  <si>
-    <t>CCS/0005</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Invoice Company</t>
   </si>
@@ -62,18 +56,6 @@
     <t>PAYMENT DUE BY:</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL   </t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
     <t>INVOICING CURRENCY</t>
   </si>
   <si>
@@ -83,124 +65,37 @@
     <t xml:space="preserve">Exchange Rate   </t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>PROFIT MARGIN (%)</t>
   </si>
   <si>
-    <t>CONTINUUM PAYMENT (EUR)</t>
-  </si>
-  <si>
-    <t>JPY</t>
-  </si>
-  <si>
-    <t>THB</t>
-  </si>
-  <si>
-    <t>TWD</t>
-  </si>
-  <si>
-    <t>CNY</t>
+    <t>Payment Currency</t>
+  </si>
+  <si>
+    <t>INVOICE DATE:</t>
+  </si>
+  <si>
+    <t>PAYMENT PEROID</t>
+  </si>
+  <si>
+    <t>INVOICE.NO</t>
+  </si>
+  <si>
+    <t>INVOICING CURRENY RATE TO EUR</t>
   </si>
   <si>
     <t>EUR</t>
   </si>
   <si>
-    <t>KRW</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>HKD</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>SGD</t>
+    <t>Payment Margin Total/Currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total/Currency(Exchange Applied) </t>
   </si>
   <si>
     <t>NZD</t>
   </si>
   <si>
-    <t>AED</t>
-  </si>
-  <si>
-    <t>BDT</t>
-  </si>
-  <si>
-    <t>BHD</t>
-  </si>
-  <si>
-    <t>CHF</t>
-  </si>
-  <si>
-    <t>INR</t>
-  </si>
-  <si>
-    <t>KES</t>
-  </si>
-  <si>
-    <t>KWD</t>
-  </si>
-  <si>
-    <t>MUR</t>
-  </si>
-  <si>
-    <t>MYR</t>
-  </si>
-  <si>
-    <t>NPR</t>
-  </si>
-  <si>
-    <t>LKR</t>
-  </si>
-  <si>
-    <t>OMR</t>
-  </si>
-  <si>
-    <t>PHP</t>
-  </si>
-  <si>
-    <t>QAR</t>
-  </si>
-  <si>
-    <t>SAR</t>
-  </si>
-  <si>
-    <t>BRL</t>
-  </si>
-  <si>
-    <t>DKK</t>
-  </si>
-  <si>
-    <t>JOD</t>
-  </si>
-  <si>
-    <t>KZT</t>
-  </si>
-  <si>
-    <t>MAD</t>
-  </si>
-  <si>
-    <t>NOK</t>
-  </si>
-  <si>
-    <t>ZAR</t>
-  </si>
-  <si>
-    <t>SEK</t>
-  </si>
-  <si>
-    <t>SYP</t>
-  </si>
-  <si>
-    <t>TRY</t>
+    <t>01/01/2015 00:00:00 - 01/02/2015 23:59:59</t>
   </si>
 </sst>
 </file>
@@ -208,15 +103,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="9">
-    <numFmt numFmtId="44" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd\ mmmm\ yyyy"/>
     <numFmt numFmtId="165" formatCode="General;;"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="#,##0.00;;"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00;;\-"/>
-    <numFmt numFmtId="169" formatCode="_-[$$-1409]* #,##0.00_-;\-[$$-1409]* #,##0.00_-;_-[$$-1409]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="_-[$$-1409]* #,##0.00_-;\-[$$-1409]* #,##0.00_-;_-[$$-1409]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;???????_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -239,12 +134,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="Calibri Light"/>
-      <family val="1"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="20"/>
@@ -254,12 +143,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="22"/>
       <color rgb="FF0091DA"/>
       <name val="Calibri"/>
@@ -350,6 +233,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0091DA"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -368,15 +264,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="3"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -434,144 +321,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -582,20 +497,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -626,7 +529,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -644,7 +547,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="#,##0.00;;"/>
+      <numFmt numFmtId="170" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;???????_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -766,13 +669,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B15:E53" totalsRowShown="0">
-  <autoFilter ref="B15:E53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B16:E54" totalsRowShown="0">
+  <autoFilter ref="B16:E54"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Code" dataDxfId="3"/>
-    <tableColumn id="2" name="Currency" dataDxfId="2"/>
+    <tableColumn id="1" name="Payment Currency" dataDxfId="3"/>
+    <tableColumn id="2" name="Payment Margin Total/Currency" dataDxfId="2"/>
     <tableColumn id="3" name="Exchange Rate   " dataDxfId="1"/>
-    <tableColumn id="4" name="TOTAL   " dataDxfId="0"/>
+    <tableColumn id="4" name="Total/Currency(Exchange Applied) " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1041,19 +944,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1062,618 +963,485 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="37" t="str">
+        <f ca="1" xml:space="preserve"> "CCS/ "&amp;RANDBETWEEN(1000,1000000000)</f>
+        <v>CCS/ 850292493</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="44">
+      <c r="B3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="36">
         <f ca="1" xml:space="preserve"> TODAY()</f>
-        <v>42051</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="27">
-        <v>0.85456900000000002</v>
-      </c>
-      <c r="E3" s="27">
+        <v>42052</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="19">
-        <f ca="1" xml:space="preserve"> B3 + 30</f>
-        <v>42081</v>
-      </c>
-      <c r="D4" s="49">
-        <f xml:space="preserve"> ((E54 / 100) * C6)</f>
-        <v>12990.07892</v>
-      </c>
-      <c r="E4" s="49"/>
+      <c r="B4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="27">
+        <f ca="1" xml:space="preserve"> C3 + 30</f>
+        <v>42082</v>
+      </c>
+      <c r="D4" s="43" t="str">
+        <f xml:space="preserve"> C5</f>
+        <v>NZD</v>
+      </c>
+      <c r="E4" s="40">
+        <f xml:space="preserve"> ((E55 / 100) * C6)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
+      <c r="B5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="34">
+      <c r="B6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="29">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D6" s="50">
-        <f xml:space="preserve"> D4 / D3</f>
-        <v>15200.737354151624</v>
-      </c>
-      <c r="E6" s="50"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="52">
-        <v>0.87650399999999995</v>
-      </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="30">
+        <v>0.661165</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="41">
+        <f xml:space="preserve"> E4 * C7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="B8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="46"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="39"/>
+      <c r="B10" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="55"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="39"/>
+      <c r="B11" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="49"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="49"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
-      <c r="B15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="23">
-        <v>3.07</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26">
-        <v>48.31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26">
-        <v>36.21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26">
-        <v>757.16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26">
-        <v>21497.85</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26">
-        <v>9167.8799999999992</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26">
-        <v>573.58000000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26">
-        <v>31363.56</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26">
-        <v>9636.1200000000008</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26">
-        <v>118129.77</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26">
-        <v>25944.68</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26">
-        <v>8307.48</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26">
-        <v>71.27</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26">
-        <v>32191.360000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26">
-        <v>5190.84</v>
-      </c>
+      <c r="B16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="32"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="33"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="33"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="33"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="33"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="33"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="33"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="33"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="33"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="33"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="33"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="33"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="33"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="33"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="26">
-        <v>3.02</v>
-      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="33"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26">
-        <v>1.08</v>
-      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="33"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26">
-        <v>181557.67</v>
-      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="33"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26">
-        <v>9.08</v>
-      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="33"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26">
-        <v>926.25</v>
-      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="33"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="24"/>
-      <c r="C38" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="26">
-        <v>2.4</v>
-      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="33"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="24"/>
-      <c r="C39" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26">
-        <v>0.52</v>
-      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="33"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="24"/>
-      <c r="C40" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="26">
-        <v>106784.83</v>
-      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="33"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="24"/>
-      <c r="C41" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="26">
-        <v>8.4700000000000006</v>
-      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="33"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="24"/>
-      <c r="C42" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="26">
-        <v>1486.77</v>
-      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="33"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="24"/>
-      <c r="C43" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="26">
-        <v>1557.59</v>
-      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="33"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="24"/>
-      <c r="C44" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="26">
-        <v>245.36</v>
-      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="33"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="24"/>
-      <c r="C45" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="26">
-        <v>16.66</v>
-      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="33"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="24"/>
-      <c r="C46" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="26">
-        <v>6799.66</v>
-      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="33"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="24"/>
-      <c r="C47" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="26">
-        <v>0.31</v>
-      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="33"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="24"/>
-      <c r="C48" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="26">
-        <v>79.44</v>
-      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="33"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="24"/>
-      <c r="C49" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="26">
-        <v>108.71</v>
-      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="33"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="24"/>
-      <c r="C50" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="26">
-        <v>222.07</v>
-      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="33"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="28"/>
-      <c r="C51" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="29"/>
-      <c r="E51" s="30">
-        <v>79.8</v>
-      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="33"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="28"/>
-      <c r="C52" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D52" s="29"/>
-      <c r="E52" s="30">
-        <v>0.65</v>
-      </c>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="34"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="31"/>
-      <c r="C53" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="33">
-        <v>1976.21</v>
-      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="34"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="40">
-        <f>SUM(Table4[[TOTAL   ]])</f>
-        <v>564786.04</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="41"/>
-    </row>
-    <row r="56" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-    </row>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="35"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="52" t="str">
+        <f xml:space="preserve"> "Total "&amp;C5</f>
+        <v>Total NZD</v>
+      </c>
+      <c r="E55" s="50">
+        <f>SUM(Table4[Total/Currency(Exchange Applied) ])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="51"/>
+    </row>
+    <row r="57" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="26"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="26"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="19"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="26"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="19"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="26"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="19"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="26"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="19"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="26"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="19"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
+  <mergeCells count="14">
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="D55:D56"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="B57:E57"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="D54:D55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
